--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>WLED Wemos shield BOM</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>S10KQCT-ND</t>
   </si>
   <si>
     <t>CFM14JT10K0</t>
@@ -1685,7 +1688,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="8">
         <v>3</v>
@@ -1693,19 +1696,19 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="11">
         <v>9</v>
       </c>
       <c r="D4" t="s" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="12">
         <v>4</v>
@@ -1713,19 +1716,19 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="12">
         <v>1</v>
@@ -1733,19 +1736,19 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="12">
         <v>2</v>
@@ -1753,16 +1756,16 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="12">
         <v>860010273011</v>
@@ -1773,19 +1776,19 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -1793,19 +1796,19 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s" s="11">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s" s="11">
         <v>36</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s" s="11">
-        <v>35</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
@@ -1813,19 +1816,19 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
@@ -1833,19 +1836,19 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="12">
         <v>1</v>
@@ -1853,19 +1856,19 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -1873,16 +1876,16 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="13">
         <v>3568</v>
       </c>
       <c r="C13" t="s" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="12">
         <v>3568</v>
@@ -1893,19 +1896,19 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -1913,19 +1916,19 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="12">
         <v>1</v>
@@ -1933,19 +1936,19 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s" s="10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s" s="11">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s" s="11">
         <v>68</v>
-      </c>
-      <c r="D16" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s" s="11">
-        <v>67</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
@@ -1953,19 +1956,19 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s" s="15">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s" s="15">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s" s="15">
         <v>72</v>
-      </c>
-      <c r="D17" t="s" s="15">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s" s="15">
-        <v>71</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
@@ -1973,19 +1976,19 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s" s="11">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s" s="11">
         <v>76</v>
-      </c>
-      <c r="D18" t="s" s="11">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s" s="11">
-        <v>75</v>
       </c>
       <c r="F18" s="12">
         <v>1</v>
@@ -1993,16 +1996,16 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" s="12">
         <v>398800302</v>
@@ -2013,16 +2016,16 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" s="12">
         <v>398800304</v>
@@ -2033,19 +2036,19 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="12">
         <v>2</v>
@@ -2053,19 +2056,19 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="12">
         <v>1</v>
@@ -2073,19 +2076,19 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="12">
         <v>1</v>

--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>WLED Wemos shield BOM</t>
   </si>
@@ -238,7 +238,7 @@
     <t>PB2032-ND</t>
   </si>
   <si>
-    <t>PS1</t>
+    <t>PS1 (jumper select)</t>
   </si>
   <si>
     <t>VXO7805-500</t>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>102-4249-ND</t>
+  </si>
+  <si>
+    <t>PS1 (auto select)</t>
+  </si>
+  <si>
+    <t>MEZD74800A-B</t>
+  </si>
+  <si>
+    <t>Monolithic Power Systems</t>
+  </si>
+  <si>
+    <t>1589-1488-ND</t>
   </si>
   <si>
     <t>X1</t>
@@ -338,7 +350,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -483,7 +501,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -533,6 +551,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -569,6 +596,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="fffceabb"/>
+      <rgbColor rgb="ffff8cc5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1627,7 +1655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1635,7 +1663,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.0312" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.4688" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5625" style="1" customWidth="1"/>
@@ -1998,19 +2026,19 @@
       <c r="A19" t="s" s="9">
         <v>79</v>
       </c>
-      <c r="B19" t="s" s="10">
+      <c r="B19" t="s" s="17">
         <v>80</v>
       </c>
-      <c r="C19" t="s" s="11">
+      <c r="C19" t="s" s="18">
         <v>81</v>
       </c>
-      <c r="D19" t="s" s="11">
+      <c r="D19" t="s" s="18">
         <v>82</v>
       </c>
-      <c r="E19" s="12">
-        <v>398800302</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="E19" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="F19" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2022,13 +2050,13 @@
         <v>84</v>
       </c>
       <c r="C20" t="s" s="11">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="12">
-        <v>398800304</v>
+        <v>398800302</v>
       </c>
       <c r="F20" s="12">
         <v>1</v>
@@ -2036,53 +2064,53 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s" s="11">
         <v>89</v>
       </c>
-      <c r="E21" t="s" s="11">
-        <v>90</v>
+      <c r="E21" s="12">
+        <v>398800304</v>
       </c>
       <c r="F21" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="9">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s" s="10">
         <v>91</v>
       </c>
-      <c r="B22" t="s" s="10">
+      <c r="C22" t="s" s="11">
         <v>92</v>
       </c>
-      <c r="C22" t="s" s="11">
+      <c r="D22" t="s" s="11">
         <v>93</v>
       </c>
-      <c r="D22" t="s" s="11">
+      <c r="E22" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="E22" t="s" s="11">
-        <v>95</v>
-      </c>
       <c r="F22" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="9">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s" s="10">
         <v>96</v>
       </c>
-      <c r="B23" t="s" s="10">
+      <c r="C23" t="s" s="11">
         <v>97</v>
-      </c>
-      <c r="C23" t="s" s="11">
-        <v>88</v>
       </c>
       <c r="D23" t="s" s="11">
         <v>98</v>
@@ -2095,12 +2123,32 @@
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="A24" t="s" s="9">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -5,13 +5,16 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - WLED Wemos shield BOM" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - WLED_Wemos_shield_Dig" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+  <si>
+    <t>WLED_Wemos_shield_Digikey</t>
+  </si>
   <si>
     <t>WLED Wemos shield BOM</t>
   </si>
@@ -61,6 +64,18 @@
     <t>CFM14JT4K70</t>
   </si>
   <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>150Ohm</t>
+  </si>
+  <si>
+    <t>S150QCT-ND</t>
+  </si>
+  <si>
+    <t>CFM14JT150R</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
@@ -250,18 +265,6 @@
     <t>102-4249-ND</t>
   </si>
   <si>
-    <t>PS1 (auto select)</t>
-  </si>
-  <si>
-    <t>MEZD74800A-B</t>
-  </si>
-  <si>
-    <t>Monolithic Power Systems</t>
-  </si>
-  <si>
-    <t>1589-1488-ND</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
@@ -323,6 +326,21 @@
   </si>
   <si>
     <t>SPC02SYAN</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>450-1657-ND</t>
+  </si>
+  <si>
+    <t>1825027-8</t>
   </si>
 </sst>
 </file>
@@ -350,7 +368,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,18 +384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -501,78 +507,45 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,8 +568,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fffceabb"/>
-      <rgbColor rgb="ffff8cc5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -628,13 +599,13 @@
         <a:srgbClr val="61D836"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FAE232"/>
+        <a:srgbClr val="FFD932"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="FF644E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="EF5FA7"/>
+        <a:srgbClr val="FF42A1"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -793,7 +764,7 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="000000"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat">
           <a:noFill/>
@@ -806,7 +777,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -830,10 +801,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Helvetica Neue Medium"/>
+            <a:ea typeface="Helvetica Neue Medium"/>
+            <a:cs typeface="Helvetica Neue Medium"/>
+            <a:sym typeface="Helvetica Neue Medium"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1081,7 +1052,7 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1655,21 +1626,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:F25"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.0312" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.4688" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7422" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25781" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85156" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1686,476 +1658,498 @@
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>6</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="6">
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="B4" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="C4" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="D4" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="F3" s="8">
+      <c r="E4" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="10">
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="11">
+      <c r="B5" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="C5" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="F4" s="12">
+      <c r="E5" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s" s="10">
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="B6" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="C6" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E6" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B7" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="C7" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="D6" t="s" s="11">
+      <c r="D7" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E7" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="F8" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="E7" s="12">
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E9" s="11">
         <v>860010273011</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="F8" s="12">
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F10" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="F9" s="12">
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F11" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="F10" s="12">
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12">
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="F13" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s" s="11">
-        <v>53</v>
-      </c>
-      <c r="F12" s="12">
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="F14" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B15" s="12">
         <v>3568</v>
       </c>
-      <c r="C13" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="C15" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="E15" s="11">
         <v>3568</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F15" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="F14" s="12">
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="F16" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="F15" s="12">
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="F17" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s" s="11">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="F16" s="12">
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s" s="9">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="F18" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s" s="14">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s" s="15">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s" s="15">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s" s="15">
-        <v>72</v>
-      </c>
-      <c r="F17" s="16">
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s" s="9">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="F19" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s" s="11">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s" s="11">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s" s="11">
-        <v>76</v>
-      </c>
-      <c r="F18" s="12">
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="F20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s" s="17">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s" s="18">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s" s="18">
-        <v>82</v>
-      </c>
-      <c r="E19" t="s" s="18">
-        <v>80</v>
-      </c>
-      <c r="F19" s="19">
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="E21" s="11">
+        <v>398800302</v>
+      </c>
+      <c r="F21" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s" s="11">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s" s="11">
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s" s="10">
         <v>86</v>
       </c>
-      <c r="E20" s="12">
-        <v>398800302</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="D22" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="E22" s="11">
+        <v>398800304</v>
+      </c>
+      <c r="F22" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s" s="11">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="E21" s="12">
-        <v>398800304</v>
-      </c>
-      <c r="F21" s="12">
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s" s="9">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s" s="9">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="F24" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s" s="11">
-        <v>92</v>
-      </c>
-      <c r="D22" t="s" s="11">
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s" s="9">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s" s="10">
         <v>93</v>
       </c>
-      <c r="E22" t="s" s="11">
-        <v>94</v>
-      </c>
-      <c r="F22" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s" s="11">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s" s="11">
-        <v>98</v>
-      </c>
-      <c r="E23" t="s" s="11">
-        <v>99</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="D25" t="s" s="10">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="F25" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s" s="11">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s" s="11">
-        <v>103</v>
-      </c>
-      <c r="F24" s="12">
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="F26" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>WLED_Wemos_shield_Digikey</t>
   </si>
@@ -286,7 +286,7 @@
     <t>WM13972-ND</t>
   </si>
   <si>
-    <t>H1, H2</t>
+    <t>H1, H2 (Wemos D1 mini)</t>
   </si>
   <si>
     <t>CONN HDR 8POS 0.1 GOLD PCB</t>
@@ -301,6 +301,21 @@
     <t>PPPC081LFBN-RC</t>
   </si>
   <si>
+    <t>H1, H3, H4 (ESP 32 mini)</t>
+  </si>
+  <si>
+    <t>H2 (ESP 32 mini)</t>
+  </si>
+  <si>
+    <t>CONN HDR 10POS 0.1 GOLD PCB</t>
+  </si>
+  <si>
+    <t>S7043-ND</t>
+  </si>
+  <si>
+    <t>PPPC101LFBN-RC</t>
+  </si>
+  <si>
     <t>Headers</t>
   </si>
   <si>
@@ -341,6 +356,18 @@
   </si>
   <si>
     <t>1825027-8</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>SENSOR REMOTE REC 38.0KHZ 45M</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductor</t>
+  </si>
+  <si>
+    <t>TSOP38238</t>
   </si>
 </sst>
 </file>
@@ -350,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -362,13 +389,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +419,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -400,6 +444,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -413,7 +479,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -422,7 +488,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,43 +497,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,28 +527,58 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,44 +588,65 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -564,10 +666,13 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff8af3e7"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -584,10 +689,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -764,11 +869,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -777,34 +885,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1052,12 +1160,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1348,7 +1456,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1629,7 +1737,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1648,499 +1756,559 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="F3" t="s" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="A5" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="D5" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="A6" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="D6" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E6" t="s" s="10">
+      <c r="E6" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="A7" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="A8" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="B8" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="C8" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="D8" t="s" s="10">
+      <c r="D8" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="E8" t="s" s="10">
+      <c r="E8" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="A9" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B9" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" t="s" s="12">
         <v>33</v>
       </c>
-      <c r="D9" t="s" s="10">
+      <c r="D9" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="14">
         <v>860010273011</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
+      <c r="A10" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" t="s" s="11">
         <v>36</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C10" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="10">
+      <c r="D10" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="E10" t="s" s="10">
+      <c r="E10" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="8">
+      <c r="A11" t="s" s="10">
         <v>40</v>
       </c>
-      <c r="B11" t="s" s="9">
+      <c r="B11" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="C11" t="s" s="10">
+      <c r="C11" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D11" t="s" s="10">
+      <c r="D11" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="E11" t="s" s="10">
+      <c r="E11" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="8">
+      <c r="A12" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="B12" t="s" s="11">
         <v>45</v>
       </c>
-      <c r="C12" t="s" s="10">
+      <c r="C12" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="D12" t="s" s="10">
+      <c r="D12" t="s" s="12">
         <v>47</v>
       </c>
-      <c r="E12" t="s" s="10">
+      <c r="E12" t="s" s="12">
         <v>48</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="8">
+      <c r="A13" t="s" s="10">
         <v>49</v>
       </c>
-      <c r="B13" t="s" s="9">
+      <c r="B13" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="C13" t="s" s="10">
+      <c r="C13" t="s" s="12">
         <v>51</v>
       </c>
-      <c r="D13" t="s" s="10">
+      <c r="D13" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="E13" t="s" s="10">
+      <c r="E13" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="8">
+      <c r="A14" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="B14" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="C14" t="s" s="10">
+      <c r="C14" t="s" s="12">
         <v>56</v>
       </c>
-      <c r="D14" t="s" s="10">
+      <c r="D14" t="s" s="12">
         <v>57</v>
       </c>
-      <c r="E14" t="s" s="10">
+      <c r="E14" t="s" s="12">
         <v>58</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="8">
+      <c r="A15" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="15">
         <v>3568</v>
       </c>
-      <c r="C15" t="s" s="10">
+      <c r="C15" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="D15" t="s" s="10">
+      <c r="D15" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="14">
         <v>3568</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="8">
+      <c r="A16" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="B16" t="s" s="9">
+      <c r="B16" t="s" s="11">
         <v>63</v>
       </c>
-      <c r="C16" t="s" s="10">
+      <c r="C16" t="s" s="12">
         <v>64</v>
       </c>
-      <c r="D16" t="s" s="10">
+      <c r="D16" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="E16" t="s" s="10">
+      <c r="E16" t="s" s="12">
         <v>66</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="8">
+      <c r="A17" t="s" s="10">
         <v>67</v>
       </c>
-      <c r="B17" t="s" s="9">
+      <c r="B17" t="s" s="11">
         <v>68</v>
       </c>
-      <c r="C17" t="s" s="10">
+      <c r="C17" t="s" s="12">
         <v>69</v>
       </c>
-      <c r="D17" t="s" s="10">
+      <c r="D17" t="s" s="12">
         <v>70</v>
       </c>
-      <c r="E17" t="s" s="10">
+      <c r="E17" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="8">
+      <c r="A18" t="s" s="10">
         <v>72</v>
       </c>
-      <c r="B18" t="s" s="9">
+      <c r="B18" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="C18" t="s" s="10">
+      <c r="C18" t="s" s="12">
         <v>74</v>
       </c>
-      <c r="D18" t="s" s="10">
+      <c r="D18" t="s" s="12">
         <v>75</v>
       </c>
-      <c r="E18" t="s" s="10">
+      <c r="E18" t="s" s="12">
         <v>73</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="8">
+      <c r="A19" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="B19" t="s" s="9">
+      <c r="B19" t="s" s="11">
         <v>77</v>
       </c>
-      <c r="C19" t="s" s="10">
+      <c r="C19" t="s" s="12">
         <v>78</v>
       </c>
-      <c r="D19" t="s" s="10">
+      <c r="D19" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="E19" t="s" s="10">
+      <c r="E19" t="s" s="12">
         <v>77</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="8">
+      <c r="A20" t="s" s="10">
         <v>80</v>
       </c>
-      <c r="B20" t="s" s="9">
+      <c r="B20" t="s" s="11">
         <v>81</v>
       </c>
-      <c r="C20" t="s" s="10">
+      <c r="C20" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="D20" t="s" s="10">
+      <c r="D20" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="E20" t="s" s="10">
+      <c r="E20" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
+      <c r="A21" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="B21" t="s" s="9">
+      <c r="B21" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="C21" t="s" s="10">
+      <c r="C21" t="s" s="12">
         <v>86</v>
       </c>
-      <c r="D21" t="s" s="10">
+      <c r="D21" t="s" s="12">
         <v>87</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="14">
         <v>398800302</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="8">
+      <c r="A22" t="s" s="10">
         <v>88</v>
       </c>
-      <c r="B22" t="s" s="9">
+      <c r="B22" t="s" s="11">
         <v>89</v>
       </c>
-      <c r="C22" t="s" s="10">
+      <c r="C22" t="s" s="12">
         <v>86</v>
       </c>
-      <c r="D22" t="s" s="10">
+      <c r="D22" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="14">
         <v>398800304</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="8">
+      <c r="A23" t="s" s="10">
         <v>91</v>
       </c>
-      <c r="B23" t="s" s="9">
+      <c r="B23" t="s" s="11">
         <v>92</v>
       </c>
-      <c r="C23" t="s" s="10">
+      <c r="C23" t="s" s="12">
         <v>93</v>
       </c>
-      <c r="D23" t="s" s="10">
+      <c r="D23" t="s" s="12">
         <v>94</v>
       </c>
-      <c r="E23" t="s" s="10">
+      <c r="E23" t="s" s="12">
         <v>95</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="8">
+      <c r="A24" t="s" s="16">
         <v>96</v>
       </c>
-      <c r="B24" t="s" s="9">
+      <c r="B24" t="s" s="17">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s" s="18">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s" s="18">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s" s="18">
+        <v>95</v>
+      </c>
+      <c r="F24" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="16">
         <v>97</v>
       </c>
-      <c r="C24" t="s" s="10">
+      <c r="B25" t="s" s="17">
         <v>98</v>
       </c>
-      <c r="D24" t="s" s="10">
+      <c r="C25" t="s" s="18">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s" s="18">
         <v>99</v>
       </c>
-      <c r="E24" t="s" s="10">
+      <c r="E25" t="s" s="18">
         <v>100</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="8">
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="10">
         <v>101</v>
       </c>
-      <c r="B25" t="s" s="9">
+      <c r="B26" t="s" s="11">
         <v>102</v>
       </c>
-      <c r="C25" t="s" s="10">
+      <c r="C26" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s" s="12">
         <v>93</v>
       </c>
-      <c r="D25" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="E25" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="D27" t="s" s="12">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>109</v>
+      </c>
+      <c r="F27" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="B26" t="s" s="9">
-        <v>106</v>
-      </c>
-      <c r="C26" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="D26" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="E26" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="F26" s="11">
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s" s="11">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s" s="12">
+        <v>114</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s" s="11">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s" s="12">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s" s="12">
+        <v>118</v>
+      </c>
+      <c r="F29" s="13">
         <v>1</v>
       </c>
     </row>

--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -37,7 +37,7 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>R1, R3, R4</t>
+    <t>R3, R4</t>
   </si>
   <si>
     <t>10kOhm</t>
@@ -52,7 +52,7 @@
     <t>CFM14JT10K0</t>
   </si>
   <si>
-    <t>R2, R5, R6, R7</t>
+    <t>R1, R5, R6, R7</t>
   </si>
   <si>
     <t>4.7kOhm</t>
@@ -64,7 +64,7 @@
     <t>CFM14JT4K70</t>
   </si>
   <si>
-    <t>R8</t>
+    <t>R2</t>
   </si>
   <si>
     <t>150Ohm</t>

--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -1809,7 +1809,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">

--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>WLED_Wemos_shield_Digikey</t>
   </si>
@@ -368,6 +368,28 @@
   </si>
   <si>
     <t>TSOP38238</t>
+  </si>
+  <si>
+    <t>FUSE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Mini fuse is depend on current rating of your setup. Kit </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.amazon.com/CrocSee-250-Pieces-Assortment-Replacement/dp/B0895PV8S2/ref=sr_1_2_sspa?crid=3M7DYX0DB17FA&amp;dchild=1&amp;keywords=automotive+mini+fuses&amp;qid=1607439551&amp;sprefix=automotive+mini%2Cindustrial%2C150&amp;sr=8-2-spons&amp;psc=1&amp;smid=A2EFSDTWMPHWEA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWUtVTkxSWFZQWFNDJmVuY3J5cHRlZElkPUEwNzAyMjU2MVJaM1IySUg4SkxZWCZlbmNyeXB0ZWRBZElkPUExMDQwMzcxM1AxOEQ3RDdNNlFGRSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -377,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -399,8 +421,14 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="17"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -588,7 +622,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -649,6 +683,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,6 +716,8 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff8af3e7"/>
+      <rgbColor rgb="ffffb1a6"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1737,7 +1782,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2312,10 +2357,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" ht="84.7" customHeight="1">
+      <c r="A30" t="s" s="20">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s" s="21">
+        <v>120</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" location="" tooltip="" display="https://www.amazon.com/CrocSee-250-Pieces-Assortment-Replacement/dp/B0895PV8S2/ref=sr_1_2_sspa?crid=3M7DYX0DB17FA&amp;dchild=1&amp;keywords=automotive+mini+fuses&amp;qid=1607439551&amp;sprefix=automotive+mini%2Cindustrial%2C150&amp;sr=8-2-spons&amp;psc=1&amp;smid=A2EFSDTWMPHWEA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWUtVTkxSWFZQWFNDJmVuY3J5cHRlZElkPUEwNzAyMjU2MVJaM1IySUg4SkxZWCZlbmNyeXB0ZWRBZElkPUExMDQwMzcxM1AxOEQ3RDdNNlFGRSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>WLED_Wemos_shield_Digikey</t>
   </si>
@@ -67,13 +67,13 @@
     <t>R2</t>
   </si>
   <si>
-    <t>150Ohm</t>
-  </si>
-  <si>
-    <t>S150QCT-ND</t>
-  </si>
-  <si>
-    <t>CFM14JT150R</t>
+    <t>56Ohm</t>
+  </si>
+  <si>
+    <t>S56QCT-ND</t>
+  </si>
+  <si>
+    <t>CFM14JT56R0</t>
   </si>
   <si>
     <t>C1</t>
@@ -314,6 +314,30 @@
   </si>
   <si>
     <t>PPPC101LFBN-RC</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>CONN HDR 4POS 0.1 GOLD PCB</t>
+  </si>
+  <si>
+    <t>S7037-ND</t>
+  </si>
+  <si>
+    <t>PPPC041LFBN-RC</t>
+  </si>
+  <si>
+    <t>SOUND</t>
+  </si>
+  <si>
+    <t>CONN HDR 6POS 0.1 GOLD PCB</t>
+  </si>
+  <si>
+    <t>S7039-ND</t>
+  </si>
+  <si>
+    <t>PPPC061LFBN-RC</t>
   </si>
   <si>
     <t>Headers</t>
@@ -1782,7 +1806,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2285,13 +2309,13 @@
         <v>102</v>
       </c>
       <c r="C26" t="s" s="12">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s" s="12">
         <v>103</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="E26" t="s" s="12">
         <v>104</v>
-      </c>
-      <c r="E26" t="s" s="12">
-        <v>105</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
@@ -2299,19 +2323,19 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s" s="11">
         <v>106</v>
-      </c>
-      <c r="B27" t="s" s="11">
-        <v>107</v>
       </c>
       <c r="C27" t="s" s="12">
         <v>93</v>
       </c>
       <c r="D27" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s" s="12">
         <v>108</v>
-      </c>
-      <c r="E27" t="s" s="12">
-        <v>109</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
@@ -2319,19 +2343,19 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s" s="11">
         <v>110</v>
       </c>
-      <c r="B28" t="s" s="11">
+      <c r="C28" t="s" s="12">
         <v>111</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="D28" t="s" s="12">
         <v>112</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="E28" t="s" s="12">
         <v>113</v>
-      </c>
-      <c r="E28" t="s" s="12">
-        <v>114</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
@@ -2339,43 +2363,83 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s" s="11">
         <v>115</v>
       </c>
-      <c r="B29" t="s" s="11">
+      <c r="C29" t="s" s="12">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s" s="12">
         <v>116</v>
       </c>
-      <c r="C29" t="s" s="12">
+      <c r="E29" t="s" s="12">
         <v>117</v>
-      </c>
-      <c r="D29" t="s" s="12">
-        <v>118</v>
-      </c>
-      <c r="E29" t="s" s="12">
-        <v>118</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="84.7" customHeight="1">
-      <c r="A30" t="s" s="20">
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s" s="11">
         <v>119</v>
       </c>
-      <c r="B30" t="s" s="21">
+      <c r="C30" t="s" s="12">
         <v>120</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" t="s" s="12">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s" s="12">
+        <v>122</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s" s="11">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s" s="12">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s" s="12">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s" s="12">
+        <v>126</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="84.7" customHeight="1">
+      <c r="A32" t="s" s="20">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s" s="21">
+        <v>128</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" location="" tooltip="" display="https://www.amazon.com/CrocSee-250-Pieces-Assortment-Replacement/dp/B0895PV8S2/ref=sr_1_2_sspa?crid=3M7DYX0DB17FA&amp;dchild=1&amp;keywords=automotive+mini+fuses&amp;qid=1607439551&amp;sprefix=automotive+mini%2Cindustrial%2C150&amp;sr=8-2-spons&amp;psc=1&amp;smid=A2EFSDTWMPHWEA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWUtVTkxSWFZQWFNDJmVuY3J5cHRlZElkPUEwNzAyMjU2MVJaM1IySUg4SkxZWCZlbmNyeXB0ZWRBZElkPUExMDQwMzcxM1AxOEQ3RDdNNlFGRSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="B32" r:id="rId1" location="" tooltip="" display="Mini fuse is depend on current rating of your setup. Kit https://www.amazon.com/CrocSee-250-Pieces-Assortment-Replacement/dp/B0895PV8S2/ref=sr_1_2_sspa?crid=3M7DYX0DB17FA&amp;dchild=1&amp;keywords=automotive+mini+fuses&amp;qid=1607439551&amp;sprefix=automotive+mini%2Cindustrial%2C150&amp;sr=8-2-spons&amp;psc=1&amp;smid=A2EFSDTWMPHWEA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWUtVTkxSWFZQWFNDJmVuY3J5cHRlZElkPUEwNzAyMjU2MVJaM1IySUg4SkxZWCZlbmNyeXB0ZWRBZElkPUExMDQwMzcxM1AxOEQ3RDdNNlFGRSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>WLED_Wemos_shield_Digikey</t>
   </si>
@@ -414,6 +414,12 @@
       </rPr>
       <t>https://www.amazon.com/CrocSee-250-Pieces-Assortment-Replacement/dp/B0895PV8S2/ref=sr_1_2_sspa?crid=3M7DYX0DB17FA&amp;dchild=1&amp;keywords=automotive+mini+fuses&amp;qid=1607439551&amp;sprefix=automotive+mini%2Cindustrial%2C150&amp;sr=8-2-spons&amp;psc=1&amp;smid=A2EFSDTWMPHWEA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWUtVTkxSWFZQWFNDJmVuY3J5cHRlZElkPUEwNzAyMjU2MVJaM1IySUg4SkxZWCZlbmNyeXB0ZWRBZElkPUExMDQwMzcxM1AxOEQ3RDdNNlFGRSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
     </r>
+  </si>
+  <si>
+    <t>Power indicator LED</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/1-8mm-2mm-Round-Top-Red/dp/B017TR9ZDY/ref=sr_1_8?dchild=1&amp;keywords=1.8mm+LED+red&amp;qid=1607729167&amp;sr=8-8</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -714,6 +720,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1806,7 +1818,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2433,10 +2445,23 @@
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
     </row>
+    <row r="33" ht="30.65" customHeight="1">
+      <c r="A33" t="s" s="23">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s" s="24">
+        <v>130</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B32" r:id="rId1" location="" tooltip="" display="Mini fuse is depend on current rating of your setup. Kit https://www.amazon.com/CrocSee-250-Pieces-Assortment-Replacement/dp/B0895PV8S2/ref=sr_1_2_sspa?crid=3M7DYX0DB17FA&amp;dchild=1&amp;keywords=automotive+mini+fuses&amp;qid=1607439551&amp;sprefix=automotive+mini%2Cindustrial%2C150&amp;sr=8-2-spons&amp;psc=1&amp;smid=A2EFSDTWMPHWEA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWUtVTkxSWFZQWFNDJmVuY3J5cHRlZElkPUEwNzAyMjU2MVJaM1IySUg4SkxZWCZlbmNyeXB0ZWRBZElkPUExMDQwMzcxM1AxOEQ3RDdNNlFGRSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>

--- a/resources/BOM.xlsx
+++ b/resources/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>WLED_Wemos_shield_Digikey</t>
   </si>
@@ -286,34 +286,19 @@
     <t>WM13972-ND</t>
   </si>
   <si>
-    <t>H1, H2 (Wemos D1 mini)</t>
-  </si>
-  <si>
-    <t>CONN HDR 8POS 0.1 GOLD PCB</t>
+    <t>H1, H2</t>
+  </si>
+  <si>
+    <t>CONN HDR 20POS 0.1 GOLD PCB</t>
   </si>
   <si>
     <t>Sullins Connector Solutions</t>
   </si>
   <si>
-    <t>S7041-ND</t>
-  </si>
-  <si>
-    <t>PPPC081LFBN-RC</t>
-  </si>
-  <si>
-    <t>H1, H3, H4 (ESP 32 mini)</t>
-  </si>
-  <si>
-    <t>H2 (ESP 32 mini)</t>
-  </si>
-  <si>
-    <t>CONN HDR 10POS 0.1 GOLD PCB</t>
-  </si>
-  <si>
-    <t>S7043-ND</t>
-  </si>
-  <si>
-    <t>PPPC101LFBN-RC</t>
+    <t>S6106-ND</t>
+  </si>
+  <si>
+    <t>PPPC102LFBN-RC</t>
   </si>
   <si>
     <t>I2C</t>
@@ -722,10 +707,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1818,7 +1803,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2254,80 +2239,80 @@
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="10">
+      <c r="A23" t="s" s="16">
         <v>91</v>
       </c>
-      <c r="B23" t="s" s="11">
+      <c r="B23" t="s" s="17">
         <v>92</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="18">
         <v>93</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="18">
         <v>94</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="18">
         <v>95</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="16">
+      <c r="A24" t="s" s="10">
         <v>96</v>
       </c>
-      <c r="B24" t="s" s="17">
-        <v>92</v>
-      </c>
-      <c r="C24" t="s" s="18">
+      <c r="B24" t="s" s="11">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s" s="12">
         <v>93</v>
       </c>
-      <c r="D24" t="s" s="18">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s" s="18">
-        <v>95</v>
-      </c>
-      <c r="F24" s="19">
-        <v>3</v>
+      <c r="D24" t="s" s="12">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>99</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="16">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s" s="17">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s" s="18">
+      <c r="A25" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s" s="12">
         <v>93</v>
       </c>
-      <c r="D25" t="s" s="18">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s" s="18">
-        <v>100</v>
-      </c>
-      <c r="F25" s="19">
+      <c r="D25" t="s" s="12">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="F25" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s" s="12">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s" s="12">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s" s="12">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
@@ -2335,19 +2320,19 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s" s="11">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s" s="12">
         <v>93</v>
       </c>
       <c r="D27" t="s" s="12">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s" s="12">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
@@ -2355,19 +2340,19 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s" s="11">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s" s="12">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s" s="12">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s" s="12">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
@@ -2375,96 +2360,56 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s" s="11">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s" s="12">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s" s="12">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s" s="12">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="B30" t="s" s="11">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s" s="12">
-        <v>120</v>
-      </c>
-      <c r="D30" t="s" s="12">
-        <v>121</v>
-      </c>
-      <c r="E30" t="s" s="12">
+    <row r="30" ht="84.7" customHeight="1">
+      <c r="A30" t="s" s="20">
         <v>122</v>
       </c>
-      <c r="F30" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="10">
+      <c r="B30" t="s" s="21">
         <v>123</v>
       </c>
-      <c r="B31" t="s" s="11">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" ht="30.65" customHeight="1">
+      <c r="A31" t="s" s="23">
         <v>124</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="B31" t="s" s="24">
         <v>125</v>
       </c>
-      <c r="D31" t="s" s="12">
-        <v>126</v>
-      </c>
-      <c r="E31" t="s" s="12">
-        <v>126</v>
-      </c>
-      <c r="F31" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" ht="84.7" customHeight="1">
-      <c r="A32" t="s" s="20">
-        <v>127</v>
-      </c>
-      <c r="B32" t="s" s="21">
-        <v>128</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" ht="30.65" customHeight="1">
-      <c r="A33" t="s" s="23">
-        <v>129</v>
-      </c>
-      <c r="B33" t="s" s="24">
-        <v>130</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" location="" tooltip="" display="Mini fuse is depend on current rating of your setup. Kit https://www.amazon.com/CrocSee-250-Pieces-Assortment-Replacement/dp/B0895PV8S2/ref=sr_1_2_sspa?crid=3M7DYX0DB17FA&amp;dchild=1&amp;keywords=automotive+mini+fuses&amp;qid=1607439551&amp;sprefix=automotive+mini%2Cindustrial%2C150&amp;sr=8-2-spons&amp;psc=1&amp;smid=A2EFSDTWMPHWEA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWUtVTkxSWFZQWFNDJmVuY3J5cHRlZElkPUEwNzAyMjU2MVJaM1IySUg4SkxZWCZlbmNyeXB0ZWRBZElkPUExMDQwMzcxM1AxOEQ3RDdNNlFGRSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="B30" r:id="rId1" location="" tooltip="" display="Mini fuse is depend on current rating of your setup. Kit https://www.amazon.com/CrocSee-250-Pieces-Assortment-Replacement/dp/B0895PV8S2/ref=sr_1_2_sspa?crid=3M7DYX0DB17FA&amp;dchild=1&amp;keywords=automotive+mini+fuses&amp;qid=1607439551&amp;sprefix=automotive+mini%2Cindustrial%2C150&amp;sr=8-2-spons&amp;psc=1&amp;smid=A2EFSDTWMPHWEA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWUtVTkxSWFZQWFNDJmVuY3J5cHRlZElkPUEwNzAyMjU2MVJaM1IySUg4SkxZWCZlbmNyeXB0ZWRBZElkPUExMDQwMzcxM1AxOEQ3RDdNNlFGRSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
